--- a/data/trans_camb/IP09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-36,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>-36,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>-37,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>-37,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>-37,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,81</t>
+          <t>-21,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 15,33</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 30,62</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 32,05</t>
+          <t>-100,0; 52,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 30,04</t>
+          <t>-75,71; 65,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 37,15</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 43,86</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 16,16</t>
+          <t>-69,52; 15,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 25,99</t>
+          <t>-83,95; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 29,4</t>
+          <t>-70,35; 27,94</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>-31,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>-13,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-67,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>-57,13%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 69,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 125,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 142,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 239,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 298,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 335,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 70,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 116,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 127,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,44</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,05</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,63</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,26</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>11,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 15,98</t>
+          <t>-25,25; 15,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 47,08</t>
+          <t>-15,24; 30,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 12,43</t>
+          <t>-10,7; 32,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 30,9</t>
+          <t>-14,07; 30,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 65,9</t>
+          <t>-13,21; 37,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 41,69</t>
+          <t>-11,08; 43,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 18,84</t>
+          <t>-14,19; 16,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 49,29</t>
+          <t>-8,97; 25,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 18,51</t>
+          <t>-6,62; 29,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,47%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,12%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>121,62%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>361,63%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>181,78%</t>
+          <t>50,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>130,56%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>37,86%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 69,09</t>
+          <t>-60,85; 69,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 196,15</t>
+          <t>-36,95; 125,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 56,42</t>
+          <t>-27,25; 142,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 751,01</t>
+          <t>-34,97; 239,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,66; 2072,78</t>
+          <t>-35,31; 298,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 1106,48</t>
+          <t>-35,26; 335,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 122,65</t>
+          <t>-36,78; 70,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,83; 299,83</t>
+          <t>-24,15; 116,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 113,05</t>
+          <t>-16,86; 127,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-36,85</t>
+          <t>22,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-36,85</t>
+          <t>30,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,44</t>
+          <t>14,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-37,85</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-37,85</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-25,31</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-37,37</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-21,35</t>
+          <t>7,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>1,11; 43,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-2,07; 59,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,02</t>
+          <t>-11,71; 39,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 65,94</t>
+          <t>-33,99; 27,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-44,04; 28,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-41,91; 27,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 15,69</t>
+          <t>-5,65; 32,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-83,95; 0,0</t>
+          <t>-7,64; 36,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 27,94</t>
+          <t>-13,28; 27,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>131,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>176,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>85,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-19,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-67,73%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-57,13%</t>
+          <t>28,7%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 805,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,43; 952,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,49; 682,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,4; 175,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,87; 161,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,17; 156,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,4; 258,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,61; 234,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,85; 194,15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,71</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>30,41</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>39,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>30,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>4,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 43,56</t>
+          <t>-28,33; 15,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 59,36</t>
+          <t>-10,39; 47,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 39,0</t>
+          <t>-31,16; 12,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 27,76</t>
+          <t>-7,26; 30,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 28,41</t>
+          <t>6,14; 65,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 27,38</t>
+          <t>-0,3; 41,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 32,72</t>
+          <t>-10,43; 18,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 36,91</t>
+          <t>8,03; 49,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 27,7</t>
+          <t>-11,65; 18,51</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>131,53%</t>
+          <t>-16,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>176,09%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>-27,12%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>121,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>361,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>181,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>60,23%</t>
+          <t>130,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 805,76</t>
+          <t>-58,93; 69,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 952,37</t>
+          <t>-21,23; 196,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 682,55</t>
+          <t>-66,29; 56,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,4; 175,52</t>
+          <t>-55,06; 751,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 161,64</t>
+          <t>10,66; 2072,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 156,04</t>
+          <t>-31,26; 1106,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 258,66</t>
+          <t>-36,36; 122,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 234,67</t>
+          <t>25,83; 299,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 194,15</t>
+          <t>-40,64; 113,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,02</t>
+          <t>-74,44; 52,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 65,94</t>
+          <t>-75,71; 65,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,52; 15,69</t>
+          <t>-74,57; 17,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-83,95; 0,0</t>
+          <t>-82,39; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 27,94</t>
+          <t>-71,45; 26,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 58,07</t>
+          <t>2,6; 58,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 59,58</t>
+          <t>-5,72; 60,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 34,28</t>
+          <t>-25,93; 30,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 47,65</t>
+          <t>-23,31; 47,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 67,51</t>
+          <t>-17,2; 65,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 46,76</t>
+          <t>-22,05; 48,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 47,01</t>
+          <t>1,28; 44,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 53,26</t>
+          <t>6,18; 55,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 29,67</t>
+          <t>-18,69; 30,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 613,25</t>
+          <t>-1,53; 731,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 639,88</t>
+          <t>-34,38; 565,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,29; 294,7</t>
+          <t>-84,91; 231,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 575,92</t>
+          <t>-54,53; 582,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 809,06</t>
+          <t>-44,04; 686,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 533,73</t>
+          <t>-55,79; 575,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 357,2</t>
+          <t>2,28; 371,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 459,16</t>
+          <t>12,46; 403,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 203,29</t>
+          <t>-54,16; 210,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 15,33</t>
+          <t>-23,37; 15,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 30,62</t>
+          <t>-15,85; 28,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 32,05</t>
+          <t>-11,54; 31,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 30,04</t>
+          <t>-15,67; 30,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 37,15</t>
+          <t>-11,57; 36,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 43,86</t>
+          <t>-14,55; 41,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 16,16</t>
+          <t>-14,57; 15,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 25,99</t>
+          <t>-7,45; 24,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 29,4</t>
+          <t>-4,69; 29,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 69,82</t>
+          <t>-56,75; 70,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 125,43</t>
+          <t>-40,67; 126,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 142,95</t>
+          <t>-26,16; 152,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 239,67</t>
+          <t>-39,04; 203,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 298,28</t>
+          <t>-32,07; 251,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 335,07</t>
+          <t>-43,55; 287,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 70,86</t>
+          <t>-36,35; 67,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 116,86</t>
+          <t>-19,74; 107,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 127,93</t>
+          <t>-13,73; 125,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 43,56</t>
+          <t>-0,75; 41,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 59,36</t>
+          <t>-0,06; 61,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 39,0</t>
+          <t>-10,67; 41,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 27,76</t>
+          <t>-35,21; 29,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 28,41</t>
+          <t>-45,64; 25,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 27,38</t>
+          <t>-42,47; 25,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 32,72</t>
+          <t>-6,99; 31,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 36,91</t>
+          <t>-9,0; 36,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 27,7</t>
+          <t>-13,45; 26,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 805,76</t>
+          <t>-9,13; 845,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 952,37</t>
+          <t>-15,27; 930,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 682,55</t>
+          <t>-54,95; 717,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,4; 175,52</t>
+          <t>-57,75; 174,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 161,64</t>
+          <t>-77,38; 151,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 156,04</t>
+          <t>-74,69; 204,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 258,66</t>
+          <t>-20,25; 214,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 234,67</t>
+          <t>-28,47; 260,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 194,15</t>
+          <t>-41,65; 194,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 15,98</t>
+          <t>-28,1; 15,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 47,08</t>
+          <t>-8,62; 46,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 12,43</t>
+          <t>-30,57; 12,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 30,9</t>
+          <t>-7,89; 31,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 65,9</t>
+          <t>11,4; 67,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 41,69</t>
+          <t>-4,28; 42,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 18,84</t>
+          <t>-10,24; 17,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,03; 49,29</t>
+          <t>10,17; 49,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 18,51</t>
+          <t>-10,85; 19,33</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 69,09</t>
+          <t>-60,53; 70,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 196,15</t>
+          <t>-19,97; 188,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 56,42</t>
+          <t>-65,18; 63,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 751,01</t>
+          <t>-58,76; 848,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,66; 2072,78</t>
+          <t>38,0; 1795,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 1106,48</t>
+          <t>-50,36; 1106,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 122,65</t>
+          <t>-32,82; 111,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,83; 299,83</t>
+          <t>28,54; 329,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 113,05</t>
+          <t>-35,84; 123,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 15,9</t>
+          <t>-7,85; 16,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,46; 30,91</t>
+          <t>3,41; 31,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 14,21</t>
+          <t>-10,34; 15,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 24,55</t>
+          <t>-1,26; 22,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,15; 30,69</t>
+          <t>3,77; 31,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 26,0</t>
+          <t>-1,55; 26,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 16,68</t>
+          <t>-0,93; 15,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,24; 28,02</t>
+          <t>7,89; 27,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 16,85</t>
+          <t>-3,34; 15,86</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 67,06</t>
+          <t>-22,18; 73,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,96; 132,31</t>
+          <t>8,36; 140,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 62,19</t>
+          <t>-29,55; 69,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 162,37</t>
+          <t>-5,87; 135,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,12; 191,37</t>
+          <t>8,64; 183,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 167,11</t>
+          <t>-6,96; 175,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 79,17</t>
+          <t>-1,11; 73,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,02; 125,12</t>
+          <t>25,58; 121,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 77,94</t>
+          <t>-10,43; 72,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-74,44; 52,02</t>
+          <t>-100,0; 52,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 17,04</t>
+          <t>-71,28; 12,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,39; 0,0</t>
+          <t>-87,53; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 26,1</t>
+          <t>-71,73; 24,71</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 58,35</t>
+          <t>2,63; 58,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 60,33</t>
+          <t>-2,44; 62,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 30,78</t>
+          <t>-31,18; 28,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 47,93</t>
+          <t>-19,13; 51,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 65,45</t>
+          <t>-15,64; 63,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 48,4</t>
+          <t>-25,33; 44,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 44,65</t>
+          <t>4,31; 47,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 55,8</t>
+          <t>4,01; 54,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 30,6</t>
+          <t>-16,53; 28,22</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 731,67</t>
+          <t>0,3; 684,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 565,71</t>
+          <t>-20,52; 675,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 231,46</t>
+          <t>-77,33; 231,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 582,23</t>
+          <t>-49,75; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 686,92</t>
+          <t>-48,17; 717,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 575,22</t>
+          <t>-63,89; 530,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 371,52</t>
+          <t>13,79; 429,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 403,03</t>
+          <t>13,2; 437,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 210,8</t>
+          <t>-51,38; 201,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 15,31</t>
+          <t>-25,25; 14,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 28,27</t>
+          <t>-15,68; 30,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 31,96</t>
+          <t>-11,29; 32,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 30,09</t>
+          <t>-16,92; 27,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 36,36</t>
+          <t>-14,27; 33,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 41,93</t>
+          <t>-14,13; 44,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 15,06</t>
+          <t>-13,92; 15,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 24,93</t>
+          <t>-7,94; 25,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 29,02</t>
+          <t>-6,01; 29,14</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,75; 70,97</t>
+          <t>-59,53; 63,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 126,76</t>
+          <t>-39,18; 135,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 152,57</t>
+          <t>-26,49; 138,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 203,65</t>
+          <t>-40,72; 169,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 251,51</t>
+          <t>-39,41; 219,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 287,89</t>
+          <t>-40,24; 306,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 67,62</t>
+          <t>-35,15; 68,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 107,65</t>
+          <t>-20,54; 112,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 125,51</t>
+          <t>-15,6; 124,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 41,66</t>
+          <t>-2,29; 42,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 61,74</t>
+          <t>2,46; 61,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 41,01</t>
+          <t>-12,14; 39,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 29,22</t>
+          <t>-31,82; 30,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 25,72</t>
+          <t>-43,2; 28,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 25,73</t>
+          <t>-45,39; 24,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 31,33</t>
+          <t>-5,12; 29,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 36,88</t>
+          <t>-7,07; 38,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 26,67</t>
+          <t>-12,08; 29,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 845,96</t>
+          <t>-10,4; 761,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 930,75</t>
+          <t>-3,86; 917,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,95; 717,36</t>
+          <t>-46,54; 630,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 174,21</t>
+          <t>-53,84; 187,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,38; 151,02</t>
+          <t>-75,45; 162,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,69; 204,01</t>
+          <t>-73,54; 137,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 214,83</t>
+          <t>-16,93; 204,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 260,34</t>
+          <t>-24,8; 263,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 194,16</t>
+          <t>-37,7; 218,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 15,74</t>
+          <t>-28,31; 16,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 46,38</t>
+          <t>-6,16; 47,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 12,94</t>
+          <t>-32,36; 13,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 31,42</t>
+          <t>-6,24; 31,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,4; 67,0</t>
+          <t>9,54; 65,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 42,22</t>
+          <t>-1,22; 42,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 17,91</t>
+          <t>-10,24; 18,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,17; 49,55</t>
+          <t>9,94; 49,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 19,33</t>
+          <t>-10,34; 19,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,53; 70,47</t>
+          <t>-58,38; 70,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 188,13</t>
+          <t>-15,02; 204,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 63,04</t>
+          <t>-67,48; 60,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 848,68</t>
+          <t>-49,57; 903,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>38,0; 1795,67</t>
+          <t>19,37; 1758,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 1106,66</t>
+          <t>-32,33; 1188,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 111,92</t>
+          <t>-34,59; 119,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>28,54; 329,97</t>
+          <t>32,92; 326,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 123,24</t>
+          <t>-35,59; 117,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 16,15</t>
+          <t>-5,9; 14,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,41; 31,08</t>
+          <t>3,98; 31,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 15,43</t>
+          <t>-9,1; 15,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 22,48</t>
+          <t>-1,09; 23,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,77; 31,62</t>
+          <t>1,88; 31,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 26,84</t>
+          <t>-2,54; 25,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,76</t>
+          <t>-1,38; 16,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,89; 27,22</t>
+          <t>7,69; 27,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 15,86</t>
+          <t>-2,42; 15,98</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 73,34</t>
+          <t>-16,71; 69,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8,36; 140,32</t>
+          <t>12,42; 135,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 69,32</t>
+          <t>-28,47; 64,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 135,13</t>
+          <t>-6,93; 145,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,64; 183,85</t>
+          <t>6,45; 196,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 175,97</t>
+          <t>-8,67; 153,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 73,25</t>
+          <t>-4,39; 77,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,58; 121,65</t>
+          <t>24,58; 124,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 72,25</t>
+          <t>-8,43; 71,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-36,85</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-36,85</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,44</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-37,85</t>
+          <t>22,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,85</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,31</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-37,37</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,35</t>
+          <t>-1,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-21,98; 42,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-28,9; 48,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,02</t>
+          <t>-30,59; 34,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 65,99</t>
+          <t>-11,19; 38,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-8,45; 51,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-35,67; 24,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,28; 12,9</t>
+          <t>-5,74; 33,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-87,53; 0,0</t>
+          <t>-6,54; 41,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-71,73; 24,71</t>
+          <t>-26,2; 19,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-67,73%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>70,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-57,13%</t>
+          <t>-5,19%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,81; 456,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,47; 463,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,99; 370,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,34; 371,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,96; 435,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,0; 150,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,69; 212,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 258,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,33; 116,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,99</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,83</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>22,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,33</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,4</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,57</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>15,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 58,81</t>
+          <t>-14,07; 30,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 62,47</t>
+          <t>-13,21; 37,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 28,79</t>
+          <t>-5,46; 59,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 51,41</t>
+          <t>-25,25; 15,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 63,79</t>
+          <t>-15,24; 30,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 44,67</t>
+          <t>-12,26; 31,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 47,35</t>
+          <t>-14,19; 16,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 54,73</t>
+          <t>-8,97; 25,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 28,22</t>
+          <t>-4,1; 38,09</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>149,49%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>143,9%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>107,55%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>108,88%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>131,69%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>49,2%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 684,86</t>
+          <t>-34,97; 239,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 675,98</t>
+          <t>-35,31; 298,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,33; 231,5</t>
+          <t>-26,0; 571,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,75; —</t>
+          <t>-60,85; 69,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 717,23</t>
+          <t>-36,95; 125,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 530,26</t>
+          <t>-28,58; 142,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 429,08</t>
+          <t>-36,78; 70,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 437,18</t>
+          <t>-24,15; 116,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 201,77</t>
+          <t>-14,63; 158,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>22,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>30,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,81</t>
+          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 14,56</t>
+          <t>-33,99; 27,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 30,17</t>
+          <t>-44,04; 28,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 32,09</t>
+          <t>-42,66; 25,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 27,55</t>
+          <t>1,11; 43,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 33,89</t>
+          <t>-2,07; 59,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 44,6</t>
+          <t>-12,56; 38,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 15,37</t>
+          <t>-5,65; 32,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 25,88</t>
+          <t>-7,64; 36,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 29,14</t>
+          <t>-13,74; 26,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,31%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>-19,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>131,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>176,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>24,44%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 63,4</t>
+          <t>-58,4; 175,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 135,19</t>
+          <t>-75,87; 161,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 138,5</t>
+          <t>-73,73; 149,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 169,49</t>
+          <t>-11,15; 805,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 219,83</t>
+          <t>-23,43; 952,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 306,93</t>
+          <t>-52,16; 684,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 68,3</t>
+          <t>-16,4; 258,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 112,44</t>
+          <t>-25,61; 234,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 124,21</t>
+          <t>-42,44; 183,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,71</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,41</t>
+          <t>39,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>20,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>20,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>30,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>4,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 42,27</t>
+          <t>-7,26; 30,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 61,35</t>
+          <t>6,14; 65,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 39,74</t>
+          <t>0,44; 42,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 30,49</t>
+          <t>-28,33; 15,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 28,19</t>
+          <t>-10,39; 47,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 24,33</t>
+          <t>-31,09; 12,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 29,94</t>
+          <t>-10,43; 18,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 38,21</t>
+          <t>8,03; 49,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 29,01</t>
+          <t>-11,46; 18,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>131,53%</t>
+          <t>121,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>176,09%</t>
+          <t>361,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>188,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-16,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>-27,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>60,23%</t>
+          <t>130,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>19,83%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 761,61</t>
+          <t>-55,06; 751,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 917,63</t>
+          <t>10,66; 2072,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 630,49</t>
+          <t>-28,64; 1119,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 187,64</t>
+          <t>-58,93; 69,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 162,74</t>
+          <t>-21,23; 196,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,54; 137,08</t>
+          <t>-67,67; 54,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 204,79</t>
+          <t>-36,36; 122,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 263,02</t>
+          <t>25,83; 299,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 218,48</t>
+          <t>-40,84; 110,75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,44</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>15,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,05</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,63</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,26</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 16,46</t>
+          <t>-0,73; 24,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 47,58</t>
+          <t>2,15; 30,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 13,02</t>
+          <t>0,44; 33,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 31,95</t>
+          <t>-6,7; 15,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,54; 65,34</t>
+          <t>2,46; 30,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 42,95</t>
+          <t>-12,58; 13,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 18,05</t>
+          <t>-0,29; 16,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,94; 49,47</t>
+          <t>7,24; 28,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 19,1</t>
+          <t>-1,92; 18,29</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,47%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,12%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>121,62%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>361,63%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>181,78%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>130,56%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-58,38; 70,11</t>
+          <t>-3,38; 162,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 204,78</t>
+          <t>8,12; 191,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 60,86</t>
+          <t>-2,54; 199,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 903,22</t>
+          <t>-18,99; 67,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,37; 1758,46</t>
+          <t>6,96; 132,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 1188,38</t>
+          <t>-37,31; 55,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 119,56</t>
+          <t>-1,4; 79,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>32,92; 326,23</t>
+          <t>22,02; 125,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 117,18</t>
+          <t>-7,49; 83,37</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>17,41</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>17,72</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>7,44</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 14,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 31,7</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-9,1; 15,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 23,61</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 31,59</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 25,92</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 16,1</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 27,43</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 15,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>16,12%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>60,46%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>50,56%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>77,88%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>53,87%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>64,87%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>25,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-16,71; 69,39</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 135,3</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-28,47; 64,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 145,07</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 196,86</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 153,56</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 77,14</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>24,58; 124,21</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-8,43; 71,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
